--- a/experiment_results/20201127_AGGREGATION_MEDIAN_NORMALIZATION1/Elevator/4wise/0.95_.xlsx
+++ b/experiment_results/20201127_AGGREGATION_MEDIAN_NORMALIZATION1/Elevator/4wise/0.95_.xlsx
@@ -495,7 +495,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -504,7 +504,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -542,10 +542,10 @@
         <v>55</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -571,19 +571,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="F4">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -609,19 +609,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -647,19 +647,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -685,19 +685,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -723,19 +723,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -761,19 +761,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F9">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -799,19 +799,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -837,19 +837,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F11">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -875,19 +875,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -913,19 +913,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1011,7 +1011,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1078,19 +1078,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -1154,19 +1154,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -1192,19 +1192,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -1230,19 +1230,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -1268,19 +1268,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -1306,19 +1306,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -1344,19 +1344,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -1382,19 +1382,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -1420,19 +1420,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -1509,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1518,7 +1518,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1585,19 +1585,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F4">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -1661,19 +1661,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -1699,19 +1699,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -1737,19 +1737,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -1775,19 +1775,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -1813,19 +1813,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -1851,10 +1851,10 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>284</v>
@@ -1889,19 +1889,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -1927,19 +1927,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -2016,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2025,7 +2025,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2092,19 +2092,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="F4">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -2168,19 +2168,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -2206,19 +2206,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -2244,19 +2244,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -2282,19 +2282,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -2320,19 +2320,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -2358,10 +2358,10 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>284</v>
@@ -2396,19 +2396,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -2434,19 +2434,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F13">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -2523,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2532,7 +2532,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="F4">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -2675,19 +2675,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -2713,19 +2713,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -2751,19 +2751,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -2789,19 +2789,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -2827,19 +2827,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -2865,10 +2865,10 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>284</v>
@@ -2903,19 +2903,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -2941,19 +2941,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F13">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -3030,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3039,7 +3039,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -3106,19 +3106,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -3182,19 +3182,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -3220,19 +3220,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -3258,19 +3258,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -3334,19 +3334,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -3372,19 +3372,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -3410,19 +3410,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -3448,19 +3448,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -3537,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3546,7 +3546,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -3613,19 +3613,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -3727,19 +3727,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -3765,19 +3765,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -3917,19 +3917,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -3955,19 +3955,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -4044,19 +4044,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -4120,19 +4120,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -4196,7 +4196,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -4205,7 +4205,7 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -4234,7 +4234,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -4243,7 +4243,7 @@
         <v>247</v>
       </c>
       <c r="E7">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -4272,7 +4272,7 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -4281,7 +4281,7 @@
         <v>269</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -4424,16 +4424,16 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -4462,7 +4462,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4471,7 +4471,7 @@
         <v>236</v>
       </c>
       <c r="E13">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -4551,19 +4551,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -4627,19 +4627,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -4703,19 +4703,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -4741,19 +4741,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -4779,19 +4779,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -4817,10 +4817,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
@@ -4829,7 +4829,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -4855,19 +4855,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -4893,19 +4893,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -4931,10 +4931,10 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
@@ -4943,7 +4943,7 @@
         <v>265</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -4969,19 +4969,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -5058,7 +5058,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5067,7 +5067,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -5134,19 +5134,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -5210,19 +5210,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -5248,19 +5248,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -5286,19 +5286,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -5324,19 +5324,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -5362,19 +5362,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -5400,19 +5400,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -5438,19 +5438,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -5476,19 +5476,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -5565,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5574,7 +5574,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -5641,19 +5641,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -5717,19 +5717,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -5755,19 +5755,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -5793,19 +5793,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -5831,19 +5831,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -5869,19 +5869,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -5907,19 +5907,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -5945,19 +5945,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -5983,19 +5983,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -6072,7 +6072,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6081,7 +6081,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -6148,19 +6148,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -6224,19 +6224,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -6262,19 +6262,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -6300,19 +6300,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -6376,19 +6376,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -6414,19 +6414,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -6452,19 +6452,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -6490,19 +6490,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -6579,19 +6579,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -6655,19 +6655,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -6731,19 +6731,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -6769,19 +6769,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -6807,19 +6807,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -6845,10 +6845,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
@@ -6857,7 +6857,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -6883,19 +6883,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -6921,19 +6921,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -6959,10 +6959,10 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
@@ -6971,7 +6971,7 @@
         <v>265</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -6997,19 +6997,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -7086,19 +7086,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -7162,19 +7162,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -7238,19 +7238,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -7276,19 +7276,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -7314,19 +7314,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -7352,10 +7352,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
@@ -7364,7 +7364,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -7390,19 +7390,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -7428,19 +7428,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -7466,10 +7466,10 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
@@ -7478,7 +7478,7 @@
         <v>265</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -7504,19 +7504,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -7593,7 +7593,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -7602,10 +7602,10 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -7669,19 +7669,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -7754,10 +7754,10 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -7783,19 +7783,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -7821,19 +7821,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -7973,16 +7973,16 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>41</v>
@@ -8011,19 +8011,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -8100,7 +8100,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -8109,7 +8109,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -8176,19 +8176,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -8252,19 +8252,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -8290,19 +8290,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -8328,19 +8328,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -8480,19 +8480,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -8518,19 +8518,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -8607,7 +8607,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -8616,7 +8616,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -8683,19 +8683,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -8759,19 +8759,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -8797,19 +8797,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -8835,19 +8835,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -8911,19 +8911,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -8949,19 +8949,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -8987,19 +8987,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -9025,19 +9025,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -9114,19 +9114,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -9190,19 +9190,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -9266,19 +9266,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -9304,19 +9304,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -9342,19 +9342,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -9380,10 +9380,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
@@ -9392,7 +9392,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -9418,19 +9418,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -9456,19 +9456,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -9494,10 +9494,10 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
@@ -9506,7 +9506,7 @@
         <v>265</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -9532,19 +9532,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -9621,7 +9621,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -9630,7 +9630,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -9697,19 +9697,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="F4">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -9811,19 +9811,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -9849,19 +9849,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -9887,19 +9887,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -9925,19 +9925,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -9963,19 +9963,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -10001,19 +10001,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -10039,19 +10039,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C13">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F13">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -10128,7 +10128,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -10137,7 +10137,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -10204,19 +10204,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -10280,19 +10280,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -10318,19 +10318,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -10356,19 +10356,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -10394,19 +10394,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -10432,19 +10432,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -10470,19 +10470,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -10508,19 +10508,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -10546,19 +10546,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -10635,7 +10635,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -10644,7 +10644,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -10711,19 +10711,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -10787,19 +10787,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -10825,19 +10825,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -10863,19 +10863,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -10901,19 +10901,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -10939,19 +10939,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -10977,19 +10977,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -11015,19 +11015,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -11053,19 +11053,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -11142,7 +11142,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -11151,7 +11151,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -11218,19 +11218,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -11294,19 +11294,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -11332,19 +11332,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -11370,19 +11370,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -11446,19 +11446,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -11484,19 +11484,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -11522,19 +11522,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -11560,19 +11560,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -11649,7 +11649,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -11658,7 +11658,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -11725,19 +11725,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -11839,19 +11839,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -11877,19 +11877,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -12029,19 +12029,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -12067,19 +12067,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -12156,7 +12156,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -12165,7 +12165,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -12232,19 +12232,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -12308,19 +12308,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -12346,19 +12346,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -12384,19 +12384,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -12460,19 +12460,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -12498,19 +12498,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -12536,19 +12536,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -12574,19 +12574,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -12663,7 +12663,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -12672,7 +12672,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -12710,10 +12710,10 @@
         <v>55</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -12739,19 +12739,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="F4">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -12777,19 +12777,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -12815,19 +12815,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F6">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -12853,19 +12853,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -12891,19 +12891,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -12929,19 +12929,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F9">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -12967,19 +12967,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -13005,19 +13005,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F11">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -13043,19 +13043,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -13081,19 +13081,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -13170,7 +13170,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -13179,7 +13179,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -13246,19 +13246,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -13322,19 +13322,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -13360,19 +13360,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -13398,19 +13398,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -13474,19 +13474,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -13512,19 +13512,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -13550,19 +13550,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -13588,19 +13588,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -13677,19 +13677,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -13753,19 +13753,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -13829,7 +13829,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -13838,7 +13838,7 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -13867,7 +13867,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -13876,7 +13876,7 @@
         <v>247</v>
       </c>
       <c r="E7">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -13905,7 +13905,7 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -13914,7 +13914,7 @@
         <v>269</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -14057,16 +14057,16 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -14095,7 +14095,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -14104,7 +14104,7 @@
         <v>236</v>
       </c>
       <c r="E13">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -14184,19 +14184,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -14260,19 +14260,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -14336,19 +14336,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -14374,19 +14374,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -14412,19 +14412,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -14450,10 +14450,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
@@ -14462,7 +14462,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -14488,19 +14488,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -14526,19 +14526,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -14564,10 +14564,10 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
@@ -14576,7 +14576,7 @@
         <v>265</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -14602,19 +14602,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -14691,19 +14691,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -14767,19 +14767,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -14843,19 +14843,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -14881,19 +14881,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -14919,19 +14919,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -14957,10 +14957,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
@@ -14969,7 +14969,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -14995,19 +14995,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -15033,19 +15033,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -15071,10 +15071,10 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
@@ -15083,7 +15083,7 @@
         <v>265</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -15109,19 +15109,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -15198,7 +15198,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -15207,7 +15207,7 @@
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -15274,19 +15274,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -15312,19 +15312,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -15388,19 +15388,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -15426,19 +15426,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -15464,19 +15464,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -15502,19 +15502,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -15578,19 +15578,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -15616,19 +15616,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G13">
         <v>447</v>
